--- a/rr_schedules/rr_8.xlsx
+++ b/rr_schedules/rr_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/rr_schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE7BEC-F4F5-FA4E-BDBC-DAAF529D4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65850DA6-0100-4C43-9D6C-F13F7881B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
   </bookViews>
@@ -29,10 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +387,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H8"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -401,106 +397,106 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
